--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
-    <sheet name="Overview_sendRate" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId2"/>
+    <sheet name="Overview_sendRate" sheetId="24" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -146,8 +147,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -166,6 +167,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,55 +204,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,6 +280,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -273,30 +290,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,91 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,61 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,11 +534,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,38 +606,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +622,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,13 +670,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,97 +682,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,7 +880,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1159,7 +1160,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1228,6 +1229,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId2"/>
+    <sheet name="getProjectList" sheetId="25" r:id="rId2"/>
     <sheet name="Overview_sendRate" sheetId="24" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>test_num</t>
   </si>
@@ -71,6 +71,16 @@
   </si>
   <si>
     <t>查询存储池管理列表信息-缺少token</t>
+  </si>
+  <si>
+    <t>查询业务池列表信息</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>查询业务池列表信息-缺少token</t>
   </si>
   <si>
     <t>test_description</t>
@@ -880,7 +890,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1159,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1231,14 +1241,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1005</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1267,16 +1334,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1284,13 +1351,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1300,13 +1367,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1317,12 +1384,12 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
     <sheet name="getProjectList" sheetId="25" r:id="rId2"/>
-    <sheet name="Overview_sendRate" sheetId="24" r:id="rId3"/>
+    <sheet name="getStoragePoolInfo" sheetId="26" r:id="rId3"/>
+    <sheet name="Overview_sendRate" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>test_num</t>
   </si>
@@ -83,6 +84,12 @@
     <t>查询业务池列表信息-缺少token</t>
   </si>
   <si>
+    <t>查询业务池详情信息</t>
+  </si>
+  <si>
+    <t>查询业务池详情信息-缺少token</t>
+  </si>
+  <si>
     <t>test_description</t>
   </si>
   <si>
@@ -156,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,46 +197,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +281,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -307,14 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,32 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +608,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -632,25 +648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1243,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1312,6 +1319,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1005</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -1334,16 +1414,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1351,13 +1431,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1367,13 +1447,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1384,12 +1464,12 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
     <sheet name="getProjectList" sheetId="25" r:id="rId2"/>
     <sheet name="getStoragePoolInfo" sheetId="26" r:id="rId3"/>
-    <sheet name="Overview_sendRate" sheetId="24" r:id="rId4"/>
+    <sheet name="getSystemQuotas" sheetId="27" r:id="rId4"/>
+    <sheet name="getStorageRemain" sheetId="28" r:id="rId5"/>
+    <sheet name="putStoragePools" sheetId="29" r:id="rId6"/>
+    <sheet name="Overview_sendRate" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>test_num</t>
   </si>
@@ -74,6 +77,9 @@
     <t>查询存储池管理列表信息-缺少token</t>
   </si>
   <si>
+    <t>缺少认证信息</t>
+  </si>
+  <si>
     <t>查询业务池列表信息</t>
   </si>
   <si>
@@ -88,6 +94,60 @@
   </si>
   <si>
     <t>查询业务池详情信息-缺少token</t>
+  </si>
+  <si>
+    <t>查询系统配额信息</t>
+  </si>
+  <si>
+    <t>查询系统配额信息-缺少token</t>
+  </si>
+  <si>
+    <t>查询存储剩余空间信息</t>
+  </si>
+  <si>
+    <t>查询存储剩余空间信息-缺少token</t>
+  </si>
+  <si>
+    <t>配置存储池空间--原始值配置--成功</t>
+  </si>
+  <si>
+    <t>{
+"storage_limit":10,
+"add_size":0,    "project_id":"f9d31e23e30c41b1a42d53ef95c8dec6"
+}</t>
+  </si>
+  <si>
+    <t>配置存储池空间--addsize为超大值配置</t>
+  </si>
+  <si>
+    <t>{
+"storage_limit":10,
+"add_size":99999999999999999999,    "project_id":"f9d31e23e30c41b1a42d53ef95c8dec6"
+}</t>
+  </si>
+  <si>
+    <t>当前配额已超过存储池限定配额</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>配置存储池空间--addsize为空配置</t>
+  </si>
+  <si>
+    <t>{
+"storage_limit":10,
+"add_size":null,    "project_id":"f9d31e23e30c41b1a42d53ef95c8dec6"
+}</t>
+  </si>
+  <si>
+    <t>存储设置失败</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>配置存储池空间-缺少token</t>
   </si>
   <si>
     <t>test_description</t>
@@ -163,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -191,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,15 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +277,21 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,17 +318,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +341,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -281,8 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,30 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,15 +607,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,11 +641,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,145 +714,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1177,7 +1237,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1233,6 +1293,9 @@
       </c>
       <c r="D3">
         <v>1005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1251,7 +1314,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1286,10 +1349,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1300,13 +1363,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>1005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1323,8 +1389,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1359,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1373,13 +1439,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1392,6 +1461,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>217007</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>217003</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -1414,16 +1745,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1431,13 +1762,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -1447,13 +1778,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1464,12 +1795,12 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
@@ -13,14 +13,17 @@
     <sheet name="getSystemQuotas" sheetId="27" r:id="rId4"/>
     <sheet name="getStorageRemain" sheetId="28" r:id="rId5"/>
     <sheet name="putStoragePools" sheetId="29" r:id="rId6"/>
-    <sheet name="Overview_sendRate" sheetId="24" r:id="rId7"/>
+    <sheet name="getCloudDiskList" sheetId="30" r:id="rId7"/>
+    <sheet name="getSnapsList" sheetId="31" r:id="rId8"/>
+    <sheet name="getMonitorInfo" sheetId="32" r:id="rId9"/>
+    <sheet name="getFlowMonitor" sheetId="33" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
   <si>
     <t>test_num</t>
   </si>
@@ -150,72 +153,61 @@
     <t>配置存储池空间-缺少token</t>
   </si>
   <si>
-    <t>test_description</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>开始时间不传</t>
-  </si>
-  <si>
-    <t>不传</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>结束时间不传</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chart值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不传</t>
-    </r>
+    <t>查看云硬盘列表-系统盘</t>
+  </si>
+  <si>
+    <t>{
+    "page":1,
+    "size":10,
+    "info":"sys"
+}</t>
+  </si>
+  <si>
+    <t>查看云硬盘列表-数据盘</t>
+  </si>
+  <si>
+    <t>{
+    "page":1,
+    "size":10,
+    "info":"data"
+}</t>
+  </si>
+  <si>
+    <t>查看云硬盘列表-缺少token</t>
+  </si>
+  <si>
+    <t>查看业务池快照</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>查看云组件快照</t>
+  </si>
+  <si>
+    <t>查看云硬盘快照</t>
+  </si>
+  <si>
+    <t>查看快照列表-缺少token</t>
+  </si>
+  <si>
+    <t>查看存储池监控信息</t>
+  </si>
+  <si>
+    <t>查看存储池监控信息-缺少token</t>
+  </si>
+  <si>
+    <t>查看存储流量监控信息</t>
+  </si>
+  <si>
+    <t>{
+"start_time":1638497102849,
+"end_time":1638498902849
+}</t>
+  </si>
+  <si>
+    <t>查看存储流量监控信息-缺少token</t>
   </si>
 </sst>
 </file>
@@ -223,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -244,30 +236,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +265,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,39 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,20 +345,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,15 +366,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,157 +394,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,25 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +603,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,6 +633,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,48 +653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +674,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -714,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -862,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -870,14 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
@@ -886,6 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,13 +1254,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="54" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2">
@@ -1282,13 +1268,13 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1304,6 +1290,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="54" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1345,13 +1407,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -1359,13 +1421,13 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3">
@@ -1421,13 +1483,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -1435,13 +1497,13 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3">
@@ -1497,13 +1559,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -1511,13 +1573,13 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3">
@@ -1573,13 +1635,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -1587,13 +1649,13 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3">
@@ -1617,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1649,13 +1711,13 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="67.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2">
@@ -1663,13 +1725,13 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2">
@@ -1680,13 +1742,13 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2">
@@ -1697,13 +1759,13 @@
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2">
@@ -1728,87 +1790,276 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="4" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1790,7 +1790,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/datafiles/storagePoolMagData.xlsx
+++ b/datafiles/storagePoolMagData.xlsx
@@ -216,8 +216,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -235,8 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +258,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +282,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -279,7 +356,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -294,13 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -308,76 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -394,25 +394,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +490,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,19 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,103 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,30 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,8 +651,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,16 +676,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>1005</v>
@@ -1957,7 +1957,6 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4">
         <v>4</v>
       </c>
